--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_Victory.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>00320022D8</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay SIM</t>
+  </si>
+  <si>
+    <t>Thay khay SIM</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>SIM LỖI</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
   </si>
 </sst>
 </file>
@@ -664,6 +685,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,32 +724,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,7 +1037,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,43 +1069,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1129,58 +1150,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="78" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1211,17 +1232,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,14 +1252,18 @@
       <c r="B6" s="67">
         <v>44970</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44972</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
@@ -1246,18 +1271,32 @@
       <c r="I6" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="69"/>
+      <c r="J6" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1272,31 +1311,53 @@
       <c r="B7" s="67">
         <v>44970</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>44972</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="H7" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="L7" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="70"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1386,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1415,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1444,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1473,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1502,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1472,7 +1533,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1562,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1591,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1620,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1710,7 +1771,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2019,7 +2080,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2211,7 +2272,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2787,6 +2848,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2798,13 +2866,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2848,43 +2909,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2929,58 +2990,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3005,23 +3066,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="81"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3047,7 +3108,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3078,7 +3139,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3107,7 +3168,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3197,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3226,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3194,7 +3255,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3284,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3254,7 +3315,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3283,7 +3344,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3312,7 +3373,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3341,7 +3402,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4572,13 +4633,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4590,6 +4644,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_Victory.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>ID mới : 0032001EE1</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận SIM</t>
+  </si>
+  <si>
+    <t>ĐM</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,6 +697,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,31 +739,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,43 +1084,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1150,58 +1165,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1232,17 +1247,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1268,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="67">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
@@ -1267,7 +1282,9 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="88" t="s">
+        <v>77</v>
+      </c>
       <c r="I6" s="68" t="s">
         <v>66</v>
       </c>
@@ -1276,14 +1293,14 @@
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="69" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="69" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P6" s="70" t="s">
         <v>73</v>
@@ -1296,7 +1313,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1312,7 +1329,7 @@
         <v>44970</v>
       </c>
       <c r="C7" s="67">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
@@ -1357,7 +1374,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1403,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1432,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1461,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1490,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1519,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1533,7 +1550,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1579,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1608,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1637,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2848,13 +2865,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2866,6 +2876,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2909,43 +2926,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2990,58 +3007,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3066,23 +3083,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3125,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3139,7 +3156,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3168,7 +3185,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3197,7 +3214,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3226,7 +3243,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3255,7 +3272,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3284,7 +3301,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3315,7 +3332,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3344,7 +3361,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3373,7 +3390,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3419,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4633,6 +4650,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4644,13 +4668,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
